--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hbegf-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hbegf-Erbb4.xlsx
@@ -543,28 +543,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H2">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I2">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J2">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N2">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.038838260782</v>
+        <v>0.36926145240625</v>
       </c>
       <c r="R2">
-        <v>0.155353043128</v>
+        <v>1.477045809625</v>
       </c>
       <c r="S2">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="T2">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,22 +611,22 @@
         <v>11.166373</v>
       </c>
       <c r="I3">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J3">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N3">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.02019624663266666</v>
+        <v>0.04020824811083333</v>
       </c>
       <c r="R3">
-        <v>0.121177479796</v>
+        <v>0.241249488665</v>
       </c>
       <c r="S3">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="T3">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,28 +667,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H4">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I4">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J4">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N4">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.008521404584666666</v>
+        <v>0.0168572040275</v>
       </c>
       <c r="R4">
-        <v>0.05112842750799999</v>
+        <v>0.101143224165</v>
       </c>
       <c r="S4">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="T4">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,28 +729,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H5">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I5">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J5">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N5">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.044131470284</v>
+        <v>0.12285638419625</v>
       </c>
       <c r="R5">
-        <v>0.176525881136</v>
+        <v>0.491425536785</v>
       </c>
       <c r="S5">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="T5">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,28 +791,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H6">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I6">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J6">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N6">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.06110623198733334</v>
+        <v>0.02784689334833334</v>
       </c>
       <c r="R6">
-        <v>0.366637391924</v>
+        <v>0.16708136009</v>
       </c>
       <c r="S6">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="T6">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,28 +853,28 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H7">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I7">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J7">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N7">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.01116508381733333</v>
+        <v>0.01967078716916666</v>
       </c>
       <c r="R7">
-        <v>0.06699050290399999</v>
+        <v>0.118024723015</v>
       </c>
       <c r="S7">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="T7">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
     </row>
   </sheetData>
